--- a/GATEWAY/A1#111GESANTHCSSRLXX/GESANTHCS_SRL/ENERGY-RIS/V.2.0/report-checklist.xlsx
+++ b/GATEWAY/A1#111GESANTHCSSRLXX/GESANTHCS_SRL/ENERGY-RIS/V.2.0/report-checklist.xlsx
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="170">
   <si>
     <t xml:space="preserve">NOME FORNITORE:</t>
   </si>
@@ -366,6 +366,10 @@
   </si>
   <si>
     <t xml:space="preserve">[ERRORE-6| L'elemento  'confidentialityCode' di ClinicalDocument DEVE avere l'attributo @code  valorizzato con 'N' o 'V', e il suo @codeSystem  con '2.16.840.1.113883.5.25'],[W005 | Sezione Esame Eseguito: l'entry/act/code può essere valorizzato secondo i sistemi di codifica\n\t\t\tLOINC @codeSystem='2.16.840.1.113883.6.1'\n\t\t\tICD-9-CM @codeSystem='2.16.840.1.113883.6.103'] </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALERT: L'elemento 'confidentialityCode' di ClinicalDocument DEVE avere l'attributo @code  valorizzato con 'N' o 'V', e il suo @codeSystem  con ‘2.16.840.1.113883.5.25']
+Il confidentialityCode viene scelto, all’interno della maschera di inserimento, tra un elenco di valori predefiniti e codificati secondo normativa. Nell’ipotetico caso in cui sia presente un codice errato, può essere effettuata una richiesta di supporto attraverso la quale un operatore provvederà a correggere i codici opportuni.</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_RAD_CT8_KO</t>
@@ -898,7 +902,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="45">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -971,7 +975,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="1"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -987,7 +991,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1002,6 +1006,10 @@
     <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
@@ -1094,11 +1102,11 @@
   </sheetPr>
   <dimension ref="A1:T707"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I35" activeCellId="0" sqref="I35"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="I17" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="P19" activeCellId="0" sqref="P19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.5234375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="7.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="15.17"/>
@@ -1759,7 +1767,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="19" s="22" customFormat="true" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" s="22" customFormat="true" ht="225.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="14" t="n">
         <v>77</v>
       </c>
@@ -1803,7 +1811,9 @@
       <c r="O19" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="P19" s="19"/>
+      <c r="P19" s="26" t="s">
+        <v>71</v>
+      </c>
       <c r="Q19" s="19"/>
       <c r="R19" s="20"/>
       <c r="S19" s="21"/>
@@ -1822,10 +1832,10 @@
         <v>27</v>
       </c>
       <c r="D20" s="14" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E20" s="15" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F20" s="16" t="n">
         <v>45203</v>
@@ -1837,7 +1847,7 @@
         <v>53</v>
       </c>
       <c r="I20" s="18" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J20" s="19" t="s">
         <v>32</v>
@@ -1850,13 +1860,13 @@
         <v>32</v>
       </c>
       <c r="N20" s="21" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="O20" s="19" t="s">
         <v>48</v>
       </c>
       <c r="P20" s="25" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Q20" s="19"/>
       <c r="R20" s="20"/>
@@ -1876,10 +1886,10 @@
         <v>27</v>
       </c>
       <c r="D21" s="14" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E21" s="15" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F21" s="16"/>
       <c r="G21" s="17"/>
@@ -1889,7 +1899,7 @@
         <v>48</v>
       </c>
       <c r="K21" s="25" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="L21" s="19"/>
       <c r="M21" s="19"/>
@@ -1914,10 +1924,10 @@
         <v>27</v>
       </c>
       <c r="D22" s="14" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E22" s="15" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F22" s="16"/>
       <c r="G22" s="17"/>
@@ -1927,7 +1937,7 @@
         <v>48</v>
       </c>
       <c r="K22" s="25" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="L22" s="19"/>
       <c r="M22" s="19"/>
@@ -1952,10 +1962,10 @@
         <v>27</v>
       </c>
       <c r="D23" s="14" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E23" s="15" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F23" s="16" t="n">
         <v>45203</v>
@@ -1964,10 +1974,10 @@
         <v>45203.6118055556</v>
       </c>
       <c r="H23" s="18" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I23" s="18" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J23" s="19" t="s">
         <v>32</v>
@@ -1980,13 +1990,13 @@
         <v>32</v>
       </c>
       <c r="N23" s="21" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="O23" s="25" t="s">
         <v>48</v>
       </c>
       <c r="P23" s="25" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="Q23" s="19"/>
       <c r="R23" s="20"/>
@@ -2006,10 +2016,10 @@
         <v>27</v>
       </c>
       <c r="D24" s="14" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E24" s="15" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F24" s="16"/>
       <c r="G24" s="17"/>
@@ -2019,7 +2029,7 @@
         <v>48</v>
       </c>
       <c r="K24" s="25" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L24" s="19"/>
       <c r="M24" s="19"/>
@@ -2044,10 +2054,10 @@
         <v>27</v>
       </c>
       <c r="D25" s="14" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E25" s="15" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F25" s="16"/>
       <c r="G25" s="17"/>
@@ -2057,7 +2067,7 @@
         <v>48</v>
       </c>
       <c r="K25" s="25" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="L25" s="19"/>
       <c r="M25" s="19"/>
@@ -2082,10 +2092,10 @@
         <v>27</v>
       </c>
       <c r="D26" s="14" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E26" s="15" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F26" s="16" t="n">
         <v>45203</v>
@@ -2094,10 +2104,10 @@
         <v>45203.6131944444</v>
       </c>
       <c r="H26" s="18" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I26" s="18" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="J26" s="19" t="s">
         <v>32</v>
@@ -2110,13 +2120,13 @@
         <v>32</v>
       </c>
       <c r="N26" s="21" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="O26" s="25" t="s">
         <v>48</v>
       </c>
       <c r="P26" s="25" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="Q26" s="19"/>
       <c r="R26" s="20"/>
@@ -2136,10 +2146,10 @@
         <v>27</v>
       </c>
       <c r="D27" s="14" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E27" s="15" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F27" s="16"/>
       <c r="G27" s="17"/>
@@ -2149,7 +2159,7 @@
         <v>48</v>
       </c>
       <c r="K27" s="25" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L27" s="19"/>
       <c r="M27" s="19"/>
@@ -2174,10 +2184,10 @@
         <v>27</v>
       </c>
       <c r="D28" s="14" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E28" s="15" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F28" s="16" t="n">
         <v>45203</v>
@@ -2186,10 +2196,10 @@
         <v>45203.6138888889</v>
       </c>
       <c r="H28" s="18" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="I28" s="18" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="J28" s="19" t="s">
         <v>32</v>
@@ -2202,13 +2212,13 @@
         <v>32</v>
       </c>
       <c r="N28" s="21" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O28" s="19" t="s">
         <v>48</v>
       </c>
       <c r="P28" s="25" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="Q28" s="19"/>
       <c r="R28" s="20"/>
@@ -2228,10 +2238,10 @@
         <v>27</v>
       </c>
       <c r="D29" s="14" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E29" s="15" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F29" s="16" t="n">
         <v>45203</v>
@@ -2240,10 +2250,10 @@
         <v>45203.6145833333</v>
       </c>
       <c r="H29" s="18" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="I29" s="18" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="J29" s="19" t="s">
         <v>32</v>
@@ -2256,13 +2266,13 @@
         <v>32</v>
       </c>
       <c r="N29" s="21" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="O29" s="25" t="s">
         <v>48</v>
       </c>
       <c r="P29" s="25" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="Q29" s="19"/>
       <c r="R29" s="20"/>
@@ -2282,10 +2292,10 @@
         <v>27</v>
       </c>
       <c r="D30" s="14" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E30" s="15" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F30" s="16" t="n">
         <v>45203</v>
@@ -2294,10 +2304,10 @@
         <v>45203.6222222222</v>
       </c>
       <c r="H30" s="18" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="I30" s="18" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="J30" s="19" t="s">
         <v>32</v>
@@ -2310,13 +2320,13 @@
         <v>32</v>
       </c>
       <c r="N30" s="21" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="O30" s="25" t="s">
         <v>48</v>
       </c>
       <c r="P30" s="25" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Q30" s="19"/>
       <c r="R30" s="20"/>
@@ -2336,10 +2346,10 @@
         <v>27</v>
       </c>
       <c r="D31" s="14" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E31" s="15" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F31" s="16" t="n">
         <v>45203</v>
@@ -2348,10 +2358,10 @@
         <v>45203.6256944445</v>
       </c>
       <c r="H31" s="18" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="I31" s="18" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="J31" s="19" t="s">
         <v>32</v>
@@ -2364,13 +2374,13 @@
         <v>32</v>
       </c>
       <c r="N31" s="21" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="O31" s="25" t="s">
         <v>48</v>
       </c>
       <c r="P31" s="25" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Q31" s="19"/>
       <c r="R31" s="20"/>
@@ -2390,10 +2400,10 @@
         <v>27</v>
       </c>
       <c r="D32" s="14" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E32" s="15" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F32" s="16" t="n">
         <v>45203</v>
@@ -2402,10 +2412,10 @@
         <v>45203.6270833333</v>
       </c>
       <c r="H32" s="18" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="I32" s="18" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="J32" s="19" t="s">
         <v>32</v>
@@ -2418,13 +2428,13 @@
         <v>32</v>
       </c>
       <c r="N32" s="21" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O32" s="25" t="s">
         <v>48</v>
       </c>
       <c r="P32" s="25" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q32" s="19"/>
       <c r="R32" s="20"/>
@@ -2444,10 +2454,10 @@
         <v>27</v>
       </c>
       <c r="D33" s="14" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E33" s="15" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F33" s="16" t="n">
         <v>45203</v>
@@ -2456,10 +2466,10 @@
         <v>45203.6277777778</v>
       </c>
       <c r="H33" s="18" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="I33" s="18" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="J33" s="19" t="s">
         <v>32</v>
@@ -2472,13 +2482,13 @@
         <v>32</v>
       </c>
       <c r="N33" s="21" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="O33" s="25" t="s">
         <v>48</v>
       </c>
       <c r="P33" s="25" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q33" s="19"/>
       <c r="R33" s="20"/>
@@ -2498,10 +2508,10 @@
         <v>27</v>
       </c>
       <c r="D34" s="14" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E34" s="15" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F34" s="16" t="n">
         <v>45203</v>
@@ -2510,10 +2520,10 @@
         <v>45203.6291666667</v>
       </c>
       <c r="H34" s="18" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="I34" s="18" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="J34" s="19" t="s">
         <v>32</v>
@@ -2526,13 +2536,13 @@
         <v>32</v>
       </c>
       <c r="N34" s="21" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="O34" s="25" t="s">
         <v>48</v>
       </c>
       <c r="P34" s="25" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q34" s="19"/>
       <c r="R34" s="20"/>
@@ -2552,10 +2562,10 @@
         <v>27</v>
       </c>
       <c r="D35" s="14" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E35" s="15" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F35" s="16" t="n">
         <v>45203</v>
@@ -2564,10 +2574,10 @@
         <v>45203.6298611111</v>
       </c>
       <c r="H35" s="18" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="I35" s="18" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="J35" s="19" t="s">
         <v>32</v>
@@ -2580,13 +2590,13 @@
         <v>32</v>
       </c>
       <c r="N35" s="21" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="O35" s="25" t="s">
         <v>48</v>
       </c>
       <c r="P35" s="25" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q35" s="19"/>
       <c r="R35" s="20"/>
@@ -17395,19 +17405,19 @@
       <formula2>0</formula2>
     </dataValidation>
     <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="J10:J16 L10:M35 O10:O22 K14 J17:J20 J23 O24:O25 J26 O27:O28 J28:J35" type="list">
-      <formula1>#REF!</formula1>
+      <formula1>#ref!</formula1>
       <formula2>0</formula2>
     </dataValidation>
     <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="Q10:Q16 N15 P15 Q17:Q35" type="list">
-      <formula1>#REF!</formula1>
+      <formula1>#ref!</formula1>
       <formula2>0</formula2>
     </dataValidation>
     <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="J21:J22 J24:J25 J27" type="list">
-      <formula1>#REF!</formula1>
+      <formula1>#ref!</formula1>
       <formula2>0</formula2>
     </dataValidation>
     <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="O23 O26 O29:O35" type="list">
-      <formula1>#REF!</formula1>
+      <formula1>#ref!</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
@@ -17433,125 +17443,125 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.5234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="26" width="16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="26" width="23.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="26" width="18.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="26" width="58.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="26" width="8.86"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="6" style="26" width="14.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="27" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="27" width="23.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="27" width="18.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="27" width="58.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="27" width="8.86"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="6" style="27" width="14.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="28" t="s">
-        <v>149</v>
-      </c>
-      <c r="D1" s="29" t="s">
+      <c r="C1" s="29" t="s">
         <v>150</v>
       </c>
-      <c r="E1" s="30"/>
+      <c r="D1" s="30" t="s">
+        <v>151</v>
+      </c>
+      <c r="E1" s="31"/>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="31" t="s">
-        <v>151</v>
-      </c>
-      <c r="B2" s="32" t="s">
+      <c r="A2" s="32" t="s">
         <v>152</v>
       </c>
-      <c r="C2" s="33" t="s">
+      <c r="B2" s="33" t="s">
         <v>153</v>
       </c>
-      <c r="D2" s="34" t="s">
+      <c r="C2" s="34" t="s">
         <v>154</v>
       </c>
-      <c r="E2" s="30"/>
+      <c r="D2" s="35" t="s">
+        <v>155</v>
+      </c>
+      <c r="E2" s="31"/>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="35" t="s">
-        <v>155</v>
-      </c>
-      <c r="B3" s="36" t="s">
-        <v>152</v>
-      </c>
-      <c r="C3" s="37" t="s">
+      <c r="A3" s="36" t="s">
         <v>156</v>
       </c>
-      <c r="D3" s="38" t="s">
+      <c r="B3" s="37" t="s">
+        <v>153</v>
+      </c>
+      <c r="C3" s="38" t="s">
         <v>157</v>
       </c>
-      <c r="E3" s="30"/>
+      <c r="D3" s="39" t="s">
+        <v>158</v>
+      </c>
+      <c r="E3" s="31"/>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="35" t="s">
+      <c r="A4" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="36" t="s">
-        <v>152</v>
-      </c>
-      <c r="C4" s="37" t="s">
-        <v>158</v>
-      </c>
-      <c r="D4" s="39" t="s">
+      <c r="B4" s="37" t="s">
+        <v>153</v>
+      </c>
+      <c r="C4" s="38" t="s">
         <v>159</v>
       </c>
-      <c r="E4" s="30"/>
+      <c r="D4" s="40" t="s">
+        <v>160</v>
+      </c>
+      <c r="E4" s="31"/>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="35" t="s">
-        <v>160</v>
-      </c>
-      <c r="B5" s="36" t="s">
-        <v>152</v>
-      </c>
-      <c r="C5" s="37" t="s">
+      <c r="A5" s="36" t="s">
         <v>161</v>
       </c>
-      <c r="D5" s="38" t="s">
+      <c r="B5" s="37" t="s">
+        <v>153</v>
+      </c>
+      <c r="C5" s="38" t="s">
         <v>162</v>
       </c>
-      <c r="E5" s="30"/>
+      <c r="D5" s="39" t="s">
+        <v>163</v>
+      </c>
+      <c r="E5" s="31"/>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="35" t="s">
-        <v>163</v>
-      </c>
-      <c r="B6" s="36" t="s">
-        <v>152</v>
-      </c>
-      <c r="C6" s="37" t="s">
+      <c r="A6" s="36" t="s">
         <v>164</v>
       </c>
-      <c r="D6" s="39" t="s">
+      <c r="B6" s="37" t="s">
+        <v>153</v>
+      </c>
+      <c r="C6" s="38" t="s">
         <v>165</v>
       </c>
-      <c r="E6" s="30"/>
+      <c r="D6" s="40" t="s">
+        <v>166</v>
+      </c>
+      <c r="E6" s="31"/>
     </row>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="40" t="s">
-        <v>166</v>
-      </c>
-      <c r="B7" s="41" t="s">
-        <v>152</v>
-      </c>
-      <c r="C7" s="42" t="s">
+      <c r="A7" s="41" t="s">
         <v>167</v>
       </c>
-      <c r="D7" s="39" t="s">
+      <c r="B7" s="42" t="s">
+        <v>153</v>
+      </c>
+      <c r="C7" s="43" t="s">
         <v>168</v>
       </c>
-      <c r="E7" s="30"/>
+      <c r="D7" s="40" t="s">
+        <v>169</v>
+      </c>
+      <c r="E7" s="31"/>
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="43"/>
-      <c r="B8" s="43"/>
-      <c r="C8" s="43"/>
+      <c r="A8" s="44"/>
+      <c r="B8" s="44"/>
+      <c r="C8" s="44"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
     </row>
